--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1248.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1248.xlsx
@@ -351,7 +351,7 @@
         <v>2.497293869151606</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>1.68099569540587</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1248.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1248.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.497293869151606</v>
+        <v>1.213250160217285</v>
       </c>
       <c r="B1">
         <v>15</v>
       </c>
       <c r="C1">
-        <v>1.68099569540587</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.9027804962360939</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.683573814590276</v>
+        <v>1.200477123260498</v>
       </c>
     </row>
   </sheetData>
